--- a/medicine/Enfance/Évacuation_d'enfants_finlandais_vers_d'autres_pays_nordiques_en_1939-1940/Évacuation_d'enfants_finlandais_vers_d'autres_pays_nordiques_en_1939-1940.xlsx
+++ b/medicine/Enfance/Évacuation_d'enfants_finlandais_vers_d'autres_pays_nordiques_en_1939-1940/Évacuation_d'enfants_finlandais_vers_d'autres_pays_nordiques_en_1939-1940.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89vacuation_d%27enfants_finlandais_vers_d%27autres_pays_nordiques_en_1939-1940</t>
+          <t>Évacuation_d'enfants_finlandais_vers_d'autres_pays_nordiques_en_1939-1940</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lors du déclenchement de la guerre d'Hiver entre la Finlande et l'Union soviétique fin 1939, 80,000 enfants ont été volontairement évacués vers d’autres pays nordiques, notamment en Suède (70 000), pays neutre, mais aussi Danemark et Norvège, non encore occupés par l'Allemagne nazie.
 C'est la plus grande opération de transfert d'enfants au monde. Dès le déclenchement de la guerre d'Hiver, un mouvement civil face aux malheurs de la Finlande prit naissance en Suède. Des familles suédoises offrirent de s'occuper gratuitement des enfants finlandais menacés par l'occupation soviétique. En Finlande, un Centre pour l'aide nordique est fondé le 13 décembre 1939 avec pour objectif principal d'organiser ce transfert.
